--- a/data_processed/20250721/BTCUSDVOLSURFACE_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDVOLSURFACE_20250721.xlsx
@@ -19812,7 +19812,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19899,7 +19899,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -32264,7 +32264,7 @@
       </c>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
